--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E332CD-8857-4FF5-9ADC-8731981B702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="16" r:id="rId1"/>
-    <sheet name="Sets-Comm" sheetId="5" r:id="rId2"/>
-    <sheet name="Sets-Proc" sheetId="11" r:id="rId3"/>
-    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId4"/>
-    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId5"/>
-    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId6"/>
-    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId7"/>
-    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId8"/>
-    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId9"/>
-    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId10"/>
+    <sheet name="Cover" sheetId="16" r:id="rId3"/>
+    <sheet name="Sets-Comm" sheetId="5" r:id="rId4"/>
+    <sheet name="Sets-Proc" sheetId="11" r:id="rId5"/>
+    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId6"/>
+    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId7"/>
+    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId8"/>
+    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId9"/>
+    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId10"/>
+    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId11"/>
+    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="651">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -636,7 +635,7 @@
     <t>T*CH4*</t>
   </si>
   <si>
-    <t>*CO2*,-*CO2S*</t>
+    <t>*CO2*,-*CO2S*,-TOTCO2*</t>
   </si>
   <si>
     <t>A*CO2*,-*CO2S</t>
@@ -651,7 +650,7 @@
     <t>R*CO2*,-*CO2S</t>
   </si>
   <si>
-    <t>T*CO2*,-*CO2S</t>
+    <t>T*CO2*,-*CO2S,-TOTCO2*</t>
   </si>
   <si>
     <t>*N2O*</t>
@@ -2056,6 +2055,12 @@
   </si>
   <si>
     <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Or</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2070,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,14 +2079,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2109,14 +2113,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <color theme="7" tint="-0.499960005283356"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2130,7 +2134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <color theme="7" tint="-0.499960005283356"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2165,7 +2169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149979993700981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,76 +2189,189 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{17C529F0-2ACB-423D-84AA-01D83A782E0E}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2267,7 +2384,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2286,7 +2403,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4793B0C-7E95-455C-B0CB-1A9B2502D62C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f4793b0c-7e95-455c-b0cb-1a9b2502d62c}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,19 +2412,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="1"/>
-          <a:ext cx="5796000" cy="2324211"/>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="5800725" cy="2324100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2330,7 +2445,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784447AE-1FD0-4F28-A1A5-EE6260431F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784447ae-1fd0-4f28-a1a5-ee6260431f6b}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,25 +2453,19 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="4617" t="8932" r="7745" b="12924"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="8810625"/>
-          <a:ext cx="1431433" cy="576000"/>
+          <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2379,7 +2488,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491EA09E-8916-42B6-AFF9-6AE648928F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491ea09e-8916-42b6-aff9-6ae648928f62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,25 +2497,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1957123" y="8810625"/>
-          <a:ext cx="1250988" cy="576000"/>
+          <a:off x="1952625" y="8810625"/>
+          <a:ext cx="1247775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2429,7 +2530,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B1B57-E70B-46F9-901A-CE09A3B75F2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049b1b57-e70b-46f9-901a-ce09a3b75f2c}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,25 +2539,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733801" y="8810625"/>
-          <a:ext cx="2018073" cy="576000"/>
+          <a:off x="3733800" y="8810625"/>
+          <a:ext cx="2019300" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2479,7 +2572,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8091D1-74BF-4EFB-AAD8-850904C730D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2a8091d1-74bf-4efb-aad8-850904c730d0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,25 +2580,19 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect l="1367" t="6562" r="4010" b="6335"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3628275" y="7962900"/>
-          <a:ext cx="1400925" cy="576000"/>
+          <a:off x="3629025" y="7962900"/>
+          <a:ext cx="1400175" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2528,36 +2615,27 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB27DD0-3AE8-4401-AAF8-48085C11883C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ab27dd0-3ae8-4401-aaf8-48085c11883c}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect l="3997" t="26197" r="3997" b="26196"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="666750" y="8077200"/>
           <a:ext cx="1676400" cy="428625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2871,28 +2949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A254A0F-7158-4F85-B7C3-36851FAE9E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A254A0F-7158-4F85-B7C3-36851FAE9E89}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.7142857142857" customWidth="1"/>
+    <col min="5" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
+    <col min="8" max="10" width="8.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="9.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2920,7 +2998,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2948,7 +3026,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2976,7 +3054,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3004,7 +3082,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3032,7 +3110,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3060,7 +3138,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3088,7 +3166,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3116,7 +3194,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3144,7 +3222,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3172,7 +3250,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3200,7 +3278,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3228,7 +3306,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3256,7 +3334,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3284,7 +3362,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3312,7 +3390,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>633</v>
       </c>
@@ -3342,7 +3420,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3370,7 +3448,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3398,7 +3476,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>634</v>
       </c>
@@ -3430,7 +3508,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>635</v>
       </c>
@@ -3462,7 +3540,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>636</v>
       </c>
@@ -3494,7 +3572,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3522,7 +3600,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>637</v>
       </c>
@@ -3554,7 +3632,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3582,7 +3660,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3610,7 +3688,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>638</v>
       </c>
@@ -3642,7 +3720,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3670,7 +3748,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3698,7 +3776,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>639</v>
       </c>
@@ -3730,7 +3808,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>640</v>
       </c>
@@ -3762,7 +3840,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>642</v>
       </c>
@@ -3794,7 +3872,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
         <v>644</v>
@@ -3824,7 +3902,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3852,7 +3930,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3880,7 +3958,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3908,7 +3986,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3936,7 +4014,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3964,7 +4042,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3992,7 +4070,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4020,7 +4098,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4048,7 +4126,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4076,7 +4154,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4104,7 +4182,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4132,7 +4210,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4160,7 +4238,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4188,7 +4266,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4216,7 +4294,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4244,7 +4322,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4272,7 +4350,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4300,7 +4378,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4328,7 +4406,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4356,7 +4434,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4384,7 +4462,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4412,7 +4490,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4440,7 +4518,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4468,7 +4546,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4496,7 +4574,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4524,7 +4602,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4552,7 +4630,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4580,7 +4658,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4608,7 +4686,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4636,7 +4714,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4664,7 +4742,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4692,7 +4770,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4720,7 +4798,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4748,7 +4826,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4776,7 +4854,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4804,7 +4882,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4832,7 +4910,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4860,7 +4938,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4888,7 +4966,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4916,7 +4994,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4944,7 +5022,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4972,7 +5050,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5000,7 +5078,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5028,7 +5106,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5056,7 +5134,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5084,7 +5162,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5112,7 +5190,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5140,7 +5218,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5168,7 +5246,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5196,7 +5274,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5224,7 +5302,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5252,7 +5330,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5280,7 +5358,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5308,7 +5386,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5336,7 +5414,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5364,7 +5442,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5392,7 +5470,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5420,7 +5498,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5448,7 +5526,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5476,7 +5554,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5504,7 +5582,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5532,7 +5610,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5560,7 +5638,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5588,7 +5666,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5616,7 +5694,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5644,7 +5722,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5672,7 +5750,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5711,40 +5789,40 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{7C4949C3-8590-458B-B2D3-98B4CE2A4156}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{11085E39-260B-4B51-8A4C-480062017CCE}"/>
+    <hyperlink ref="B30" r:id="rId1" display="https://github.com/MaREI-EPMG/TIMES-Ireland-model"/>
+    <hyperlink ref="B32" r:id="rId2" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.8571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>546</v>
@@ -5809,7 +5887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15">
       <c r="B4" t="s">
         <v>546</v>
       </c>
@@ -5835,7 +5913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15">
       <c r="B5" t="s">
         <v>546</v>
       </c>
@@ -5861,7 +5939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15">
       <c r="B6" t="s">
         <v>546</v>
       </c>
@@ -5887,7 +5965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15">
       <c r="B7" t="s">
         <v>546</v>
       </c>
@@ -5913,7 +5991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" t="s">
         <v>546</v>
       </c>
@@ -5939,7 +6017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15">
       <c r="B9" t="s">
         <v>546</v>
       </c>
@@ -5965,7 +6043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15">
       <c r="B10" t="s">
         <v>546</v>
       </c>
@@ -5991,7 +6069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15">
       <c r="B11" t="s">
         <v>546</v>
       </c>
@@ -6017,7 +6095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15">
       <c r="B12" t="s">
         <v>546</v>
       </c>
@@ -6043,7 +6121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -6072,7 +6150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -6101,7 +6179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -6130,7 +6208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -6159,7 +6237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="15">
       <c r="B17" t="s">
         <v>546</v>
       </c>
@@ -6185,7 +6263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="15">
       <c r="B18" t="s">
         <v>606</v>
       </c>
@@ -6211,7 +6289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="15">
       <c r="B19" t="s">
         <v>608</v>
       </c>
@@ -6243,28 +6321,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7142857142857" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -6296,7 +6374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -6322,7 +6400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -6348,7 +6426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -6374,7 +6452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -6400,7 +6478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -6426,7 +6504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6452,7 +6530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -6478,7 +6556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -6504,7 +6582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -6530,7 +6608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -6556,7 +6634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -6582,7 +6660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -6608,7 +6686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -6634,7 +6712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -6648,19 +6726,19 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -6686,7 +6764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -6712,7 +6790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -6738,7 +6816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6764,7 +6842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -6790,7 +6868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -6816,7 +6894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -6830,19 +6908,19 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>650</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -6868,7 +6946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6894,7 +6972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -6920,7 +6998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -6946,7 +7024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -6972,7 +7050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -6998,7 +7076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -7024,7 +7102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -7050,7 +7128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -7076,7 +7154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -7102,7 +7180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -7128,7 +7206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -7154,7 +7232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -7180,7 +7258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -7206,7 +7284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -7232,7 +7310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -7258,7 +7336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -7284,7 +7362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -7310,7 +7388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -7336,7 +7414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -7362,7 +7440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -7388,7 +7466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -7414,7 +7492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -7440,7 +7518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -7466,7 +7544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -7492,7 +7570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -7518,7 +7596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -7544,7 +7622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -7570,7 +7648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -7596,7 +7674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -7622,7 +7700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -7648,7 +7726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -7674,7 +7752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -7700,7 +7778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -7726,7 +7804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -7752,7 +7830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -7778,7 +7856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -7804,7 +7882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -7830,7 +7908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -7856,7 +7934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -7882,7 +7960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -7908,7 +7986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" t="s">
         <v>163</v>
       </c>
@@ -7934,7 +8012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -7960,7 +8038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -7986,7 +8064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" t="s">
         <v>163</v>
       </c>
@@ -8012,7 +8090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -8038,7 +8116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -8064,7 +8142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -8090,7 +8168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -8116,7 +8194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -8142,7 +8220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -8168,7 +8246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -8194,7 +8272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -8220,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -8246,7 +8324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -8272,7 +8350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -8304,28 +8382,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD40ADC-D5CC-4772-80B1-A116F59E0A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD40ADC-D5CC-4772-80B1-A116F59E0A06}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8363,7 +8441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -8389,7 +8467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8415,7 +8493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -8441,7 +8519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -8467,7 +8545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15">
       <c r="B7" t="s">
         <v>348</v>
       </c>
@@ -8490,7 +8568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" t="s">
         <v>543</v>
       </c>
@@ -8513,7 +8591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15">
       <c r="B9" t="s">
         <v>244</v>
       </c>
@@ -8536,7 +8614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -8559,7 +8637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -8582,7 +8660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -8605,7 +8683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="15">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -8628,7 +8706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15">
       <c r="B14" t="s">
         <v>631</v>
       </c>
@@ -8651,7 +8729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="15">
       <c r="B15" t="s">
         <v>629</v>
       </c>
@@ -8674,7 +8752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="1" t="s">
         <v>325</v>
       </c>
@@ -8700,7 +8778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="15">
       <c r="B17" t="s">
         <v>627</v>
       </c>
@@ -8723,7 +8801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="15">
       <c r="B18" t="s">
         <v>626</v>
       </c>
@@ -8746,7 +8824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="15">
       <c r="B19" t="s">
         <v>632</v>
       </c>
@@ -8769,7 +8847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="1" t="s">
         <v>325</v>
       </c>
@@ -8801,28 +8879,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8860,7 +8938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8886,7 +8964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8912,7 +8990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8938,7 +9016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8964,7 +9042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8990,7 +9068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -9016,7 +9094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9042,7 +9120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9068,7 +9146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9094,7 +9172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9120,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9146,7 +9224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -9172,7 +9250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9198,7 +9276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9230,30 +9308,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E260F6-B56C-4203-813B-A6591E1CBE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E260F6-B56C-4203-813B-A6591E1CBE42}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9291,7 +9369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -9314,7 +9392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15">
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -9337,7 +9415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15">
       <c r="B5" t="s">
         <v>198</v>
       </c>
@@ -9360,7 +9438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15">
       <c r="B6" t="s">
         <v>197</v>
       </c>
@@ -9383,7 +9461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15">
       <c r="B7" t="s">
         <v>196</v>
       </c>
@@ -9406,7 +9484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -9429,7 +9507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15">
       <c r="B9" t="s">
         <v>194</v>
       </c>
@@ -9452,7 +9530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -9475,7 +9553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15">
       <c r="B11" t="s">
         <v>192</v>
       </c>
@@ -9498,7 +9576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="1" t="s">
         <v>325</v>
       </c>
@@ -9527,7 +9605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="1" t="str">
         <f>$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
@@ -9554,9 +9632,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="1" t="str">
-        <f t="shared" ref="A14:A15" si="0">$F$12</f>
+        <f t="shared" si="0" ref="A14:A15">$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
       <c r="B14" t="s">
@@ -9581,7 +9659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
@@ -9608,7 +9686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9634,7 +9712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9660,7 +9738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9686,7 +9764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>504</v>
@@ -9710,7 +9788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="1" t="str">
         <f>$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
@@ -9737,9 +9815,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" s="1" t="str">
-        <f t="shared" ref="A21:A22" si="1">$F$19</f>
+        <f t="shared" si="1" ref="A21:A22">$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
       <c r="B21" t="s">
@@ -9764,7 +9842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RSD_BLD-XXX_RTFT</v>
@@ -9797,28 +9875,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F825B-1ED3-4C53-ABF7-18084792D4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F825B-1ED3-4C53-ABF7-18084792D4FD}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.1428571428571" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9856,7 +9934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -9885,7 +9963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -9914,7 +9992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -9943,7 +10021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -9972,7 +10050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10001,7 +10079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -10030,7 +10108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10059,7 +10137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10088,7 +10166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -10117,7 +10195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -10146,7 +10224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -10175,7 +10253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -10204,7 +10282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -10233,7 +10311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -10262,7 +10340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -10291,7 +10369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -10320,7 +10398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -10349,7 +10427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -10378,7 +10456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -10407,7 +10485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -10436,7 +10514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -10465,7 +10543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10494,7 +10572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -10523,7 +10601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -10552,7 +10630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -10581,7 +10659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -10610,7 +10688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -10639,7 +10717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -10668,7 +10746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -10697,7 +10775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -10726,7 +10804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -10755,7 +10833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -10784,7 +10862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -10813,7 +10891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -10842,7 +10920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -10871,7 +10949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -10906,28 +10984,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDC4F5-4EDB-49DB-9D6D-333A351F1738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDC4F5-4EDB-49DB-9D6D-333A351F1738}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10965,7 +11043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15">
       <c r="B3" t="s">
         <v>360</v>
       </c>
@@ -10982,7 +11060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15">
       <c r="B4" t="s">
         <v>361</v>
       </c>
@@ -10999,7 +11077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15">
       <c r="B5" t="s">
         <v>350</v>
       </c>
@@ -11016,7 +11094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15">
       <c r="B6" t="s">
         <v>362</v>
       </c>
@@ -11039,7 +11117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15">
       <c r="B7" t="s">
         <v>363</v>
       </c>
@@ -11056,7 +11134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15">
       <c r="B8" t="s">
         <v>365</v>
       </c>
@@ -11073,7 +11151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15">
       <c r="B9" t="s">
         <v>364</v>
       </c>
@@ -11090,7 +11168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -11107,7 +11185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -11124,7 +11202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -11147,7 +11225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15">
       <c r="B13" t="s">
         <v>349</v>
       </c>
@@ -11164,7 +11242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -11181,7 +11259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15">
       <c r="B15" t="s">
         <v>66</v>
       </c>
@@ -11198,7 +11276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -11215,7 +11293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -11232,7 +11310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -11249,7 +11327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15">
       <c r="B19" t="s">
         <v>369</v>
       </c>
@@ -11272,28 +11350,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A73284-DF56-4361-8316-EB8159A9346F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A73284-DF56-4361-8316-EB8159A9346F}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11331,7 +11409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -11359,33 +11437,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H3" sqref="H3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11423,7 +11501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15">
       <c r="B3" t="s">
         <v>451</v>
       </c>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B59F7C-50AA-46D6-A511-1014615B338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="16" r:id="rId3"/>
-    <sheet name="Sets-Comm" sheetId="5" r:id="rId4"/>
-    <sheet name="Sets-Proc" sheetId="11" r:id="rId5"/>
-    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId6"/>
-    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId7"/>
-    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId8"/>
-    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId9"/>
-    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId10"/>
-    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId11"/>
-    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId12"/>
+    <sheet name="Cover" sheetId="16" r:id="rId1"/>
+    <sheet name="Sets-Comm" sheetId="5" r:id="rId2"/>
+    <sheet name="Sets-Proc" sheetId="11" r:id="rId3"/>
+    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId4"/>
+    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId5"/>
+    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId6"/>
+    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId7"/>
+    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId8"/>
+    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId9"/>
+    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -1988,27 +1989,6 @@
     <t>All TRA processes</t>
   </si>
   <si>
-    <t>R*,FT-RSD*</t>
-  </si>
-  <si>
-    <t>P*,FT-PWR*,*GRID*</t>
-  </si>
-  <si>
-    <t>I*,FT-IND*</t>
-  </si>
-  <si>
-    <t>S-*,FT-SRV*</t>
-  </si>
-  <si>
-    <t>T*,FT-TRA*</t>
-  </si>
-  <si>
-    <t>A*,*AGR*</t>
-  </si>
-  <si>
-    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*</t>
-  </si>
-  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
@@ -2061,6 +2041,27 @@
   </si>
   <si>
     <t>Or</t>
+  </si>
+  <si>
+    <t>A*,*AGR*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>S-*,FT-SRV*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>I*,FT-IND*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>P*,FT-PWR*,*GRID*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>R*,FT-RSD*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>T*,FT-TRA*,-IMP*Z</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2071,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2079,13 +2080,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2113,14 +2108,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499960005283356"/>
+      <color theme="7" tint="-0.49995422223578601"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2134,7 +2129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499960005283356"/>
+      <color theme="7" tint="-0.49995422223578601"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2169,7 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149979993700981"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,189 +2184,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8"/>
-    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2384,7 +2266,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2403,7 +2285,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f4793b0c-7e95-455c-b0cb-1a9b2502d62c}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4793B0C-7E95-455C-B0CB-1A9B2502D62C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2422,7 +2304,9 @@
           <a:off x="9525" y="0"/>
           <a:ext cx="5800725" cy="2324100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2445,7 +2329,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784447ae-1fd0-4f28-a1a5-ee6260431f6b}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784447AE-1FD0-4F28-A1A5-EE6260431F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect l="4617" t="8932" r="7745" b="12924"/>
         <a:stretch>
           <a:fillRect/>
@@ -2465,7 +2349,9 @@
           <a:off x="19050" y="8810625"/>
           <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2488,7 +2374,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491ea09e-8916-42b6-aff9-6ae648928f62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491EA09E-8916-42B6-AFF9-6AE648928F62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2507,7 +2393,9 @@
           <a:off x="1952625" y="8810625"/>
           <a:ext cx="1247775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2530,7 +2418,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049b1b57-e70b-46f9-901a-ce09a3b75f2c}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B1B57-E70B-46F9-901A-CE09A3B75F2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2427,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2549,7 +2437,9 @@
           <a:off x="3733800" y="8810625"/>
           <a:ext cx="2019300" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2572,7 +2462,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2a8091d1-74bf-4efb-aad8-850904c730d0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8091D1-74BF-4EFB-AAD8-850904C730D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2471,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="1367" t="6562" r="4010" b="6335"/>
         <a:stretch>
           <a:fillRect/>
@@ -2592,7 +2482,9 @@
           <a:off x="3629025" y="7962900"/>
           <a:ext cx="1400175" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2615,16 +2507,16 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ab27dd0-3ae8-4401-aaf8-48085c11883c}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB27DD0-3AE8-4401-AAF8-48085C11883C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="3997" t="26197" r="3997" b="26196"/>
         <a:stretch>
           <a:fillRect/>
@@ -2635,7 +2527,9 @@
           <a:off x="666750" y="8077200"/>
           <a:ext cx="1676400" cy="428625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2654,9 +2548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2694,7 +2588,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2800,7 +2694,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2942,2841 +2836,2841 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A254A0F-7158-4F85-B7C3-36851FAE9E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A254A0F-7158-4F85-B7C3-36851FAE9E89}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85428571428571" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7142857142857" customWidth="1"/>
-    <col min="5" max="6" width="14.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
-    <col min="8" max="10" width="8.14285714285714" customWidth="1"/>
-    <col min="11" max="11" width="9.71428571428571" customWidth="1"/>
-    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.4285714285714" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" ht="15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" ht="15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" ht="15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" ht="15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" ht="15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" ht="15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" ht="15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" ht="15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" ht="15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" ht="15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" ht="15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" ht="15">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" ht="15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="15">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" ht="15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" ht="15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" ht="15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" ht="15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" ht="15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" ht="15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" ht="15">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" ht="15">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" ht="15">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" ht="15">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" ht="15">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" ht="15">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-    </row>
-    <row r="72" spans="1:26" ht="15">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" ht="15">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-    </row>
-    <row r="74" spans="1:26" ht="15">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" ht="15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" ht="15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" ht="15">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" ht="15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" ht="15">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-    </row>
-    <row r="80" spans="1:26" ht="15">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" ht="15">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-    </row>
-    <row r="82" spans="1:26" ht="15">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" ht="15">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" ht="15">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" ht="15">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-    </row>
-    <row r="86" spans="1:26" ht="15">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" ht="15">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" ht="15">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" ht="15">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26" ht="15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" ht="15">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26" ht="15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" ht="15">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26" ht="15">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" ht="15">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" ht="15">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" ht="15">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26" ht="15">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" ht="15">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5789,40 +5683,40 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="https://github.com/MaREI-EPMG/TIMES-Ireland-model"/>
-    <hyperlink ref="B32" r:id="rId2" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5860,8 +5754,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>546</v>
       </c>
@@ -5887,7 +5781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>546</v>
       </c>
@@ -5913,7 +5807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>546</v>
       </c>
@@ -5939,7 +5833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>546</v>
       </c>
@@ -5965,7 +5859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>546</v>
       </c>
@@ -5991,7 +5885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>546</v>
       </c>
@@ -6017,7 +5911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>546</v>
       </c>
@@ -6043,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>546</v>
       </c>
@@ -6069,7 +5963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>546</v>
       </c>
@@ -6095,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>546</v>
       </c>
@@ -6121,7 +6015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -6150,7 +6044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -6179,7 +6073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -6208,7 +6102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -6237,7 +6131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>546</v>
       </c>
@@ -6263,7 +6157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>606</v>
       </c>
@@ -6289,7 +6183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>608</v>
       </c>
@@ -6321,28 +6215,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -6374,7 +6268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -6400,7 +6294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -6426,7 +6320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -6452,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -6478,7 +6372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -6504,7 +6398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6530,7 +6424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -6556,7 +6450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -6582,7 +6476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -6608,7 +6502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -6634,7 +6528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -6660,7 +6554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -6686,7 +6580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -6712,7 +6606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -6726,19 +6620,19 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G16" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H16" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="I16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -6764,7 +6658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -6790,7 +6684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -6816,7 +6710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6842,7 +6736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -6868,7 +6762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -6894,7 +6788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -6908,19 +6802,19 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G23" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H23" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="I23" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -6946,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6972,7 +6866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -6998,7 +6892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -7024,7 +6918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -7050,7 +6944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -7076,7 +6970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -7102,7 +6996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -7128,7 +7022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -7154,7 +7048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -7180,7 +7074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -7206,7 +7100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -7232,7 +7126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -7258,7 +7152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -7284,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -7310,7 +7204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -7336,7 +7230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -7362,7 +7256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -7388,7 +7282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -7414,7 +7308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -7440,7 +7334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -7466,7 +7360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -7492,7 +7386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -7518,7 +7412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -7544,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -7570,7 +7464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -7596,7 +7490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -7622,7 +7516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -7648,7 +7542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -7674,7 +7568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -7700,7 +7594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -7726,7 +7620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -7752,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -7778,7 +7672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -7804,7 +7698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -7830,7 +7724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -7856,7 +7750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -7882,7 +7776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -7908,7 +7802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -7934,7 +7828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -7960,7 +7854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -7986,7 +7880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>163</v>
       </c>
@@ -8012,7 +7906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -8038,7 +7932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -8064,7 +7958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>163</v>
       </c>
@@ -8090,7 +7984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -8116,7 +8010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -8142,7 +8036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -8168,7 +8062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -8194,7 +8088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -8220,7 +8114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -8246,7 +8140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -8272,7 +8166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -8298,7 +8192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -8324,7 +8218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -8350,7 +8244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -8382,28 +8276,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD40ADC-D5CC-4772-80B1-A116F59E0A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD40ADC-D5CC-4772-80B1-A116F59E0A06}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8441,7 +8335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -8467,7 +8361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8493,7 +8387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -8519,7 +8413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -8545,7 +8439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>348</v>
       </c>
@@ -8568,7 +8462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>543</v>
       </c>
@@ -8591,7 +8485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>244</v>
       </c>
@@ -8614,7 +8508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -8637,7 +8531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -8660,7 +8554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -8683,7 +8577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -8706,9 +8600,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="F14" t="s">
         <v>612</v>
@@ -8729,9 +8623,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="F15" t="s">
         <v>613</v>
@@ -8752,12 +8646,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F16" t="s">
         <v>614</v>
@@ -8778,9 +8672,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="F17" t="s">
         <v>615</v>
@@ -8801,9 +8695,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="F18" t="s">
         <v>616</v>
@@ -8824,9 +8718,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="F19" t="s">
         <v>617</v>
@@ -8847,12 +8741,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F20" t="s">
         <v>618</v>
@@ -8879,28 +8773,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8938,7 +8832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8964,7 +8858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8990,7 +8884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -9016,7 +8910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -9042,7 +8936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -9068,7 +8962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -9094,7 +8988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9120,7 +9014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9146,7 +9040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9172,7 +9066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9198,7 +9092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9224,7 +9118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -9250,7 +9144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9276,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9308,30 +9202,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E260F6-B56C-4203-813B-A6591E1CBE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E260F6-B56C-4203-813B-A6591E1CBE42}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9369,7 +9263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -9392,7 +9286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -9415,7 +9309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>198</v>
       </c>
@@ -9438,7 +9332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>197</v>
       </c>
@@ -9461,7 +9355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>196</v>
       </c>
@@ -9484,7 +9378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -9507,7 +9401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>194</v>
       </c>
@@ -9530,7 +9424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -9553,7 +9447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>192</v>
       </c>
@@ -9576,11 +9470,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E12" t="s">
@@ -9605,8 +9499,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="1" t="str">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
         <f>$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
@@ -9632,9 +9526,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0" ref="A14:A15">$F$12</f>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ref="A14:A15" si="0">$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
       <c r="B14" t="s">
@@ -9659,8 +9553,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="1" t="str">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
@@ -9686,7 +9580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9712,7 +9606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9738,7 +9632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9764,8 +9658,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>504</v>
       </c>
@@ -9788,8 +9682,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="1" t="str">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
         <f>$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
@@ -9815,9 +9709,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="1" ref="A21:A22">$F$19</f>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" ref="A21:A22" si="1">$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
       <c r="B21" t="s">
@@ -9842,8 +9736,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="1" t="str">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
@@ -9875,28 +9769,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F825B-1ED3-4C53-ABF7-18084792D4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F825B-1ED3-4C53-ABF7-18084792D4FD}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A3" sqref="A3:L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="24.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9934,7 +9828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -9963,7 +9857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -9992,7 +9886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -10021,7 +9915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -10050,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10079,7 +9973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -10108,7 +10002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10137,7 +10031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10166,7 +10060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -10195,7 +10089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -10224,7 +10118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -10253,7 +10147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -10282,7 +10176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -10311,7 +10205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -10340,7 +10234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -10369,7 +10263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -10398,7 +10292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -10427,7 +10321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -10456,7 +10350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -10485,7 +10379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -10514,7 +10408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -10543,7 +10437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10572,7 +10466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -10601,7 +10495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -10630,7 +10524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -10659,7 +10553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -10688,7 +10582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -10717,7 +10611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -10746,7 +10640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -10775,7 +10669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -10804,7 +10698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -10833,7 +10727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -10862,7 +10756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -10891,7 +10785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -10920,7 +10814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -10949,7 +10843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -10984,28 +10878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDC4F5-4EDB-49DB-9D6D-333A351F1738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDC4F5-4EDB-49DB-9D6D-333A351F1738}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11043,7 +10937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>360</v>
       </c>
@@ -11060,7 +10954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>361</v>
       </c>
@@ -11077,7 +10971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>350</v>
       </c>
@@ -11094,7 +10988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>362</v>
       </c>
@@ -11117,7 +11011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>363</v>
       </c>
@@ -11134,7 +11028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>365</v>
       </c>
@@ -11151,7 +11045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>364</v>
       </c>
@@ -11168,7 +11062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -11185,7 +11079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -11202,7 +11096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -11225,7 +11119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>349</v>
       </c>
@@ -11242,7 +11136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -11259,7 +11153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>66</v>
       </c>
@@ -11276,7 +11170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -11293,7 +11187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -11310,7 +11204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -11327,7 +11221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>369</v>
       </c>
@@ -11350,28 +11244,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A73284-DF56-4361-8316-EB8159A9346F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A73284-DF56-4361-8316-EB8159A9346F}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11409,7 +11303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -11437,33 +11331,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H3" sqref="H3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11501,7 +11395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>451</v>
       </c>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE0AA1-2F28-4D0C-AA70-C03D40971978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE9A5B-13C6-41EC-93AC-1885ACCBDF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -1995,9 +1995,6 @@
     <t>P*,FT-PWR*,*GRID*</t>
   </si>
   <si>
-    <t>I*,FT-IND*</t>
-  </si>
-  <si>
     <t>S-*,FT-SRV*</t>
   </si>
   <si>
@@ -2007,9 +2004,6 @@
     <t>A*,*AGR*</t>
   </si>
   <si>
-    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*</t>
-  </si>
-  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
@@ -2161,23 +2155,28 @@
   </si>
   <si>
     <t>Industry low temperature heat</t>
+  </si>
+  <si>
+    <t>I*,FT-IND*,-IMP*Z</t>
+  </si>
+  <si>
+    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*,,-IMP*Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="185" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="170" formatCode="General_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3024,237 +3023,237 @@
     <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3372,23 +3371,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -3398,13 +3397,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3425,20 +3424,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -3461,7 +3460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3540,7 +3539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -4282,13 +4281,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4324,9 +4320,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4336,10 +4329,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1627">
     <cellStyle name="20% - Accent1 2 10" xfId="12" xr:uid="{607DEE00-44F0-4793-9492-D0B8083815E4}"/>
@@ -6569,2826 +6567,2826 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="B20" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B23" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B26" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="B30" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="B29" s="16">
-        <v>1</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9421,12 +9419,12 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9473,7 +9471,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>546</v>
       </c>
@@ -9939,14 +9937,14 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10338,16 +10336,16 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10520,16 +10518,16 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11989,106 +11987,106 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="20" t="s">
+      <c r="A80" t="s">
         <v>163</v>
       </c>
       <c r="B80" t="s">
+        <v>670</v>
+      </c>
+      <c r="D80" t="s">
+        <v>673</v>
+      </c>
+      <c r="E80" t="s">
+        <v>676</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>671</v>
+      </c>
+      <c r="D81" t="s">
+        <v>674</v>
+      </c>
+      <c r="E81" t="s">
+        <v>677</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>672</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>675</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
         <v>678</v>
       </c>
-      <c r="F80" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="20" t="s">
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="s">
-        <v>673</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="E81" s="20" t="s">
+      <c r="B83" t="s">
         <v>679</v>
       </c>
-      <c r="F81" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" t="s">
-        <v>674</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="E82" s="20" t="s">
+      <c r="D83" t="s">
         <v>680</v>
       </c>
-      <c r="F82" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="20" t="s">
+      <c r="E83" t="s">
         <v>681</v>
       </c>
-      <c r="D83" t="s">
-        <v>682</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="20" t="s">
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
         <v>16</v>
       </c>
     </row>
@@ -12104,14 +12102,14 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12424,7 +12422,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F14" t="s">
         <v>612</v>
@@ -12447,7 +12445,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F15" t="s">
         <v>613</v>
@@ -12469,11 +12467,11 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>628</v>
+        <v>682</v>
       </c>
       <c r="F16" t="s">
         <v>614</v>
@@ -12542,7 +12540,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="B19" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="F19" t="s">
         <v>617</v>
@@ -12564,11 +12562,11 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F20" t="s">
         <v>618</v>
@@ -12599,16 +12597,16 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12655,8 +12653,8 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="20" t="s">
-        <v>671</v>
+      <c r="A3" t="s">
+        <v>669</v>
       </c>
       <c r="B3" t="s">
         <v>205</v>
@@ -12681,8 +12679,8 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="20" t="s">
-        <v>671</v>
+      <c r="A4" t="s">
+        <v>669</v>
       </c>
       <c r="B4" t="s">
         <v>208</v>
@@ -12707,8 +12705,8 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20" t="s">
-        <v>671</v>
+      <c r="A5" t="s">
+        <v>669</v>
       </c>
       <c r="B5" t="s">
         <v>211</v>
@@ -12733,8 +12731,8 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20" t="s">
-        <v>671</v>
+      <c r="A6" t="s">
+        <v>669</v>
       </c>
       <c r="B6" t="s">
         <v>214</v>
@@ -12759,8 +12757,8 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="20" t="s">
-        <v>671</v>
+      <c r="A7" t="s">
+        <v>669</v>
       </c>
       <c r="B7" t="s">
         <v>217</v>
@@ -12785,8 +12783,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20" t="s">
-        <v>671</v>
+      <c r="A8" t="s">
+        <v>669</v>
       </c>
       <c r="B8" t="s">
         <v>220</v>
@@ -12811,8 +12809,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>671</v>
+      <c r="A9" t="s">
+        <v>669</v>
       </c>
       <c r="B9" t="s">
         <v>223</v>
@@ -12837,8 +12835,8 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="20" t="s">
-        <v>671</v>
+      <c r="A10" t="s">
+        <v>669</v>
       </c>
       <c r="B10" t="s">
         <v>226</v>
@@ -12863,8 +12861,8 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="20" t="s">
-        <v>671</v>
+      <c r="A11" t="s">
+        <v>669</v>
       </c>
       <c r="B11" t="s">
         <v>229</v>
@@ -12889,8 +12887,8 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="20" t="s">
-        <v>671</v>
+      <c r="A12" t="s">
+        <v>669</v>
       </c>
       <c r="B12" t="s">
         <v>232</v>
@@ -12915,8 +12913,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="20" t="s">
-        <v>671</v>
+      <c r="A13" t="s">
+        <v>669</v>
       </c>
       <c r="B13" t="s">
         <v>235</v>
@@ -12941,8 +12939,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="20" t="s">
-        <v>671</v>
+      <c r="A14" t="s">
+        <v>669</v>
       </c>
       <c r="B14" t="s">
         <v>238</v>
@@ -12967,8 +12965,8 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="20" t="s">
-        <v>671</v>
+      <c r="A15" t="s">
+        <v>669</v>
       </c>
       <c r="B15" t="s">
         <v>241</v>
@@ -12993,8 +12991,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="20" t="s">
-        <v>671</v>
+      <c r="A16" t="s">
+        <v>669</v>
       </c>
       <c r="B16" t="s">
         <v>345</v>
@@ -13023,7 +13021,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="str">
-        <f>+LEFT(O17,1)&amp;"*"&amp;RIGHT(O17,3)&amp;"*"</f>
+        <f t="shared" ref="B17:B26" si="0">+LEFT(O17,1)&amp;"*"&amp;RIGHT(O17,3)&amp;"*"</f>
         <v>I*CEM*</v>
       </c>
       <c r="F17" t="str">
@@ -13047,10 +13045,10 @@
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -13058,15 +13056,15 @@
         <v>45</v>
       </c>
       <c r="B18" t="str">
-        <f>+LEFT(O18,1)&amp;"*"&amp;RIGHT(O18,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*CAF*</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" ref="F18:F27" si="0">"DMD_IND-"&amp;RIGHT(O18,3)</f>
+        <f t="shared" ref="F18:F26" si="1">"DMD_IND-"&amp;RIGHT(O18,3)</f>
         <v>DMD_IND-CAF</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G26" si="1">"Industry - "&amp;P18</f>
+        <f t="shared" ref="G18:G26" si="2">"Industry - "&amp;P18</f>
         <v>Industry - Chemicals</v>
       </c>
       <c r="H18" t="s">
@@ -13082,10 +13080,10 @@
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -13093,15 +13091,15 @@
         <v>45</v>
       </c>
       <c r="B19" t="str">
-        <f>+LEFT(O19,1)&amp;"*"&amp;RIGHT(O19,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*FAP*</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-FAP</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Food and Drink</v>
       </c>
       <c r="H19" t="s">
@@ -13117,10 +13115,10 @@
         <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -13128,15 +13126,15 @@
         <v>45</v>
       </c>
       <c r="B20" t="str">
-        <f>+LEFT(O20,1)&amp;"*"&amp;RIGHT(O20,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*LIM*</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-LIM</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Lime</v>
       </c>
       <c r="H20" t="s">
@@ -13152,10 +13150,10 @@
         <v>16</v>
       </c>
       <c r="O20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -13163,15 +13161,15 @@
         <v>45</v>
       </c>
       <c r="B21" t="str">
-        <f>+LEFT(O21,1)&amp;"*"&amp;RIGHT(O21,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*MAP*</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-MAP</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Metals</v>
       </c>
       <c r="H21" t="s">
@@ -13187,10 +13185,10 @@
         <v>16</v>
       </c>
       <c r="O21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -13198,15 +13196,15 @@
         <v>45</v>
       </c>
       <c r="B22" t="str">
-        <f>+LEFT(O22,1)&amp;"*"&amp;RIGHT(O22,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*OMA*</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-OMA</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Other Industry</v>
       </c>
       <c r="H22" t="s">
@@ -13222,10 +13220,10 @@
         <v>16</v>
       </c>
       <c r="O22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -13233,15 +13231,15 @@
         <v>45</v>
       </c>
       <c r="B23" t="str">
-        <f>+LEFT(O23,1)&amp;"*"&amp;RIGHT(O23,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*ONM*</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-ONM</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Other Minerals</v>
       </c>
       <c r="H23" t="s">
@@ -13257,10 +13255,10 @@
         <v>16</v>
       </c>
       <c r="O23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -13268,15 +13266,15 @@
         <v>45</v>
       </c>
       <c r="B24" t="str">
-        <f>+LEFT(O24,1)&amp;"*"&amp;RIGHT(O24,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*WAP*</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-WAP</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Wood Products</v>
       </c>
       <c r="H24" t="s">
@@ -13292,10 +13290,10 @@
         <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P24" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -13303,15 +13301,15 @@
         <v>45</v>
       </c>
       <c r="B25" t="str">
-        <f>+LEFT(O25,1)&amp;"*"&amp;RIGHT(O25,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*ELC*</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-ELC</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Electricity</v>
       </c>
       <c r="H25" t="s">
@@ -13327,10 +13325,10 @@
         <v>16</v>
       </c>
       <c r="O25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -13338,15 +13336,15 @@
         <v>45</v>
       </c>
       <c r="B26" t="str">
-        <f>+LEFT(O26,1)&amp;"*"&amp;RIGHT(O26,3)&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>I*OIL*</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DMD_IND-OIL</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Industry - Oil use</v>
       </c>
       <c r="H26" t="s">
@@ -13362,10 +13360,10 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="P26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -13376,7 +13374,7 @@
         <f>+B17</f>
         <v>I*CEM*</v>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" t="str">
         <f>"TECHS_IND-"&amp;RIGHT(O17,3)</f>
         <v>TECHS_IND-CEM</v>
       </c>
@@ -13384,345 +13382,279 @@
         <f>+G17</f>
         <v>Industry - Cement</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="20" t="s">
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="20" t="s">
+      <c r="A28" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="20" t="str">
-        <f t="shared" ref="B28:B39" si="2">+B18</f>
+      <c r="B28" t="str">
+        <f t="shared" ref="B28:B36" si="3">+B18</f>
         <v>I*CAF*</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="str">
-        <f t="shared" ref="F28:F39" si="3">"TECHS_IND-"&amp;RIGHT(O18,3)</f>
+      <c r="F28" t="str">
+        <f t="shared" ref="F28:F36" si="4">"TECHS_IND-"&amp;RIGHT(O18,3)</f>
         <v>TECHS_IND-CAF</v>
       </c>
-      <c r="G28" s="20" t="str">
-        <f t="shared" ref="G28:G39" si="4">+G18</f>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G36" si="5">+G18</f>
         <v>Industry - Chemicals</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="20" t="s">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="20" t="s">
+      <c r="A29" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="20" t="str">
-        <f t="shared" si="2"/>
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
         <v>I*FAP*</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="str">
+      <c r="F29" t="str">
+        <f t="shared" si="4"/>
+        <v>TECHS_IND-FAP</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Food and Drink</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-FAP</v>
-      </c>
-      <c r="G29" s="20" t="str">
+        <v>I*LIM*</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Food and Drink</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="20" t="s">
+        <v>TECHS_IND-LIM</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Lime</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*LIM*</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-LIM</v>
-      </c>
-      <c r="G30" s="20" t="str">
+        <v>I*MAP*</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Lime</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="20" t="s">
+        <v>TECHS_IND-MAP</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Metals</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*MAP*</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-MAP</v>
-      </c>
-      <c r="G31" s="20" t="str">
+        <v>I*OMA*</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Metals</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="20" t="s">
+        <v>TECHS_IND-OMA</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Other Industry</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*OMA*</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="str">
+      <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-OMA</v>
-      </c>
-      <c r="G32" s="20" t="str">
+        <v>I*ONM*</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Other Industry</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="20" t="s">
+        <v>TECHS_IND-ONM</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Other Minerals</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*ONM*</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-ONM</v>
-      </c>
-      <c r="G33" s="20" t="str">
+        <v>I*WAP*</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Other Minerals</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="20" t="s">
+        <v>TECHS_IND-WAP</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Wood Products</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*WAP*</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-WAP</v>
-      </c>
-      <c r="G34" s="20" t="str">
+        <v>I*ELC*</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Wood Products</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="20" t="s">
+        <v>TECHS_IND-ELC</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>Industry - Electricity</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*ELC*</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>TECHS_IND-ELC</v>
-      </c>
-      <c r="G35" s="20" t="str">
+        <v>I*OIL*</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>Industry - Electricity</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>I*OIL*</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="str">
-        <f t="shared" si="3"/>
         <v>TECHS_IND-OIL</v>
       </c>
-      <c r="G36" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="G36" t="str">
+        <f t="shared" si="5"/>
         <v>Industry - Oil use</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13740,12 +13672,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -13999,10 +13931,10 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>503</v>
       </c>
       <c r="E12" t="s">
@@ -14028,7 +13960,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="3" t="str">
         <f>$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
@@ -14055,7 +13987,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="3" t="str">
         <f t="shared" ref="A14:A15" si="0">$F$12</f>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
@@ -14082,7 +14014,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>RSD_BLD-XXX_NRGSRV-WS</v>
       </c>
@@ -14187,7 +14119,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>504</v>
       </c>
@@ -14211,7 +14143,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="3" t="str">
         <f>$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
@@ -14238,7 +14170,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="3" t="str">
         <f t="shared" ref="A21:A22" si="1">$F$19</f>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
@@ -14265,7 +14197,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>RSD_BLD-XXX_RTFT</v>
       </c>
@@ -14307,10 +14239,10 @@
       <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15416,10 +15348,10 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15782,10 +15714,10 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15874,10 +15806,10 @@
       <selection activeCell="H3" sqref="H3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE9A5B-13C6-41EC-93AC-1885ACCBDF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D1D2D-565A-4C16-BEBB-B2DC122AEAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -12102,7 +12102,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -12599,8 +12599,8 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13021,8 +13021,8 @@
         <v>45</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B26" si="0">+LEFT(O17,1)&amp;"*"&amp;RIGHT(O17,3)&amp;"*"</f>
-        <v>I*CEM*</v>
+        <f>+LEFT(O17,1)&amp;"-DMD-"&amp;RIGHT(O17,3)&amp;"*"</f>
+        <v>I-DMD-CEM*</v>
       </c>
       <c r="F17" t="str">
         <f>"DMD_IND-"&amp;RIGHT(O17,3)</f>
@@ -13056,8 +13056,8 @@
         <v>45</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>I*CAF*</v>
+        <f t="shared" ref="B18:B26" si="0">+LEFT(O18,1)&amp;"-DMD-"&amp;RIGHT(O18,3)&amp;"*"</f>
+        <v>I-DMD-CAF*</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ref="F18:F26" si="1">"DMD_IND-"&amp;RIGHT(O18,3)</f>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>I*FAP*</v>
+        <v>I-DMD-FAP*</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>I*LIM*</v>
+        <v>I-DMD-LIM*</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>I*MAP*</v>
+        <v>I-DMD-MAP*</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>I*OMA*</v>
+        <v>I-DMD-OMA*</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>I*ONM*</v>
+        <v>I-DMD-ONM*</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>I*WAP*</v>
+        <v>I-DMD-WAP*</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>I*ELC*</v>
+        <v>I-DMD-ELC*</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>I*OIL*</v>
+        <v>I-DMD-OIL*</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -13371,8 +13371,8 @@
         <v>190</v>
       </c>
       <c r="B27" t="str">
-        <f>+B17</f>
-        <v>I*CEM*</v>
+        <f>+LEFT(O17,1)&amp;"-"&amp;RIGHT(O17,3)&amp;"*"</f>
+        <v>I-CEM*</v>
       </c>
       <c r="F27" t="str">
         <f>"TECHS_IND-"&amp;RIGHT(O17,3)</f>
@@ -13400,15 +13400,15 @@
         <v>190</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" ref="B28:B36" si="3">+B18</f>
-        <v>I*CAF*</v>
+        <f t="shared" ref="B28:B36" si="3">+LEFT(O18,1)&amp;"-"&amp;RIGHT(O18,3)&amp;"*"</f>
+        <v>I-CAF*</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ref="F28:F36" si="4">"TECHS_IND-"&amp;RIGHT(O18,3)</f>
+        <f t="shared" ref="F28:F34" si="4">"TECHS_IND-"&amp;RIGHT(O18,3)</f>
         <v>TECHS_IND-CAF</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28:G36" si="5">+G18</f>
+        <f t="shared" ref="G28:G34" si="5">+G18</f>
         <v>Industry - Chemicals</v>
       </c>
       <c r="H28" t="s">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>I*FAP*</v>
+        <v>I-FAP*</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="4"/>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>I*LIM*</v>
+        <v>I-LIM*</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="4"/>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>I*MAP*</v>
+        <v>I-MAP*</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="4"/>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>I*OMA*</v>
+        <v>I-OMA*</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
@@ -13546,7 +13546,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>I*ONM*</v>
+        <v>I-ONM*</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>I*WAP*</v>
+        <v>I-WAP*</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
@@ -13604,14 +13604,14 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>I*ELC*</v>
+        <v>I-ELC*</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
+        <f>"TECHS_IND-"&amp;RIGHT(O25,3)</f>
         <v>TECHS_IND-ELC</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f>+G25</f>
         <v>Industry - Electricity</v>
       </c>
       <c r="H35" t="s">
@@ -13633,14 +13633,14 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>I*OIL*</v>
+        <v>I-OIL*</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
+        <f>"TECHS_IND-"&amp;RIGHT(O26,3)</f>
         <v>TECHS_IND-OIL</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="5"/>
+        <f>+G26</f>
         <v>Industry - Oil use</v>
       </c>
       <c r="H36" t="s">
